--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T04:00:39+00:00</t>
+    <t>2022-05-27T00:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T00:47:13+00:00</t>
+    <t>2022-06-03T08:32:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T08:32:56+00:00</t>
+    <t>2022-06-03T11:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T11:27:25+00:00</t>
+    <t>2022-06-06T06:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T06:32:48+00:00</t>
+    <t>2022-06-10T04:14:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T04:14:00+00:00</t>
+    <t>2022-06-15T04:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T04:28:17+00:00</t>
+    <t>2022-06-15T04:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T04:45:08+00:00</t>
+    <t>2022-06-15T08:13:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T08:13:49+00:00</t>
+    <t>2022-06-15T10:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T10:17:15+00:00</t>
+    <t>2022-06-16T12:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T12:05:36+00:00</t>
+    <t>2022-06-25T22:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-25T22:09:58+00:00</t>
+    <t>2022-06-27T00:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T00:53:40+00:00</t>
+    <t>2022-06-27T01:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:00:07+00:00</t>
+    <t>2022-06-27T21:09:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T21:09:13+00:00</t>
+    <t>2022-06-30T01:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T01:36:20+00:00</t>
+    <t>2022-07-04T15:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:21:33+00:00</t>
+    <t>2022-07-05T01:39:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T01:39:44+00:00</t>
+    <t>2022-07-05T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T07:48:49+00:00</t>
+    <t>2022-07-05T09:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T09:56:47+00:00</t>
+    <t>2022-07-05T11:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:03:40+00:00</t>
+    <t>2022-07-05T11:21:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:21:31+00:00</t>
+    <t>2022-07-05T11:53:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:53:10+00:00</t>
+    <t>2022-07-05T12:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:20:40+00:00</t>
+    <t>2022-07-05T12:37:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:37:35+00:00</t>
+    <t>2022-07-08T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T08:06:50+00:00</t>
+    <t>2022-07-12T21:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -659,42 +659,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T21:24:25+00:00</t>
+    <t>2022-07-14T01:49:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T01:49:20+00:00</t>
+    <t>2022-07-14T04:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:10:20+00:00</t>
+    <t>2022-07-14T04:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:18:12+00:00</t>
+    <t>2022-07-14T04:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:33:17+00:00</t>
+    <t>2022-07-14T07:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:06:43+00:00</t>
+    <t>2022-07-14T07:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:22:28+00:00</t>
+    <t>2022-07-14T08:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:18:43+00:00</t>
+    <t>2022-07-14T08:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:30:52+00:00</t>
+    <t>2022-07-14T08:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:34:38+00:00</t>
+    <t>2022-07-14T11:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:13+00:00</t>
+    <t>2022-07-14T12:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:04:06+00:00</t>
+    <t>2022-07-14T20:50:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T20:50:50+00:00</t>
+    <t>2022-07-14T20:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T20:54:56+00:00</t>
+    <t>2022-07-14T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T21:19:27+00:00</t>
+    <t>2022-07-14T21:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T21:46:04+00:00</t>
+    <t>2022-07-14T22:07:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:07:14+00:00</t>
+    <t>2022-07-14T22:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:22:01+00:00</t>
+    <t>2022-07-14T22:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:40:26+00:00</t>
+    <t>2022-07-14T22:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:53:39+00:00</t>
+    <t>2022-07-15T01:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:25:21+00:00</t>
+    <t>2022-07-15T01:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:36:43+00:00</t>
+    <t>2022-07-15T02:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T02:19:36+00:00</t>
+    <t>2022-07-15T05:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T05:55:53+00:00</t>
+    <t>2022-07-15T06:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T06:56:47+00:00</t>
+    <t>2022-07-15T09:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:29:23+00:00</t>
+    <t>2022-07-18T06:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T06:14:23+00:00</t>
+    <t>2022-07-18T10:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:29:52+00:00</t>
+    <t>2022-07-19T02:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:11:08+00:00</t>
+    <t>2022-07-19T02:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -256,8 +256,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -267,10 +267,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -309,13 +309,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -328,13 +328,13 @@
 CodeableConcept</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
 </sst>
@@ -669,7 +669,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:41:33+00:00</t>
+    <t>2022-07-19T03:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T03:03:01+00:00</t>
+    <t>2022-07-20T03:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,8 +256,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -267,10 +267,10 @@
 </t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -309,13 +309,13 @@
 </t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -328,13 +328,13 @@
 CodeableConcept</t>
   </si>
   <si>
-    <t>拡張値の値 / Value of extension</t>
-  </si>
-  <si>
-    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
 </sst>
@@ -669,7 +669,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T03:55:17+00:00</t>
+    <t>2022-07-20T05:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T05:59:04+00:00</t>
+    <t>2022-07-20T11:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T11:26:29+00:00</t>
+    <t>2022-07-20T14:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T14:25:34+00:00</t>
+    <t>2022-07-20T14:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T14:32:15+00:00</t>
+    <t>2022-07-20T15:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:52:47+00:00</t>
+    <t>2022-07-22T08:06:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T08:06:56+00:00</t>
+    <t>2022-07-22T08:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T08:10:06+00:00</t>
+    <t>2022-07-22T23:43:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T23:43:37+00:00</t>
+    <t>2022-07-25T10:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T10:03:37+00:00</t>
+    <t>2022-07-26T10:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T10:29:08+00:00</t>
+    <t>2022-07-26T11:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T11:00:46+00:00</t>
+    <t>2022-07-26T13:37:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:37:47+00:00</t>
+    <t>2022-07-26T15:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T15:08:06+00:00</t>
+    <t>2022-07-26T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:33:27+00:00</t>
+    <t>2022-07-27T07:18:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T07:18:31+00:00</t>
+    <t>2022-07-29T07:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T07:47:58+00:00</t>
+    <t>2022-07-29T11:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T11:35:01+00:00</t>
+    <t>2022-08-01T00:51:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T00:51:04+00:00</t>
+    <t>2022-08-01T08:30:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:30:35+00:00</t>
+    <t>2022-08-01T08:45:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:45:03+00:00</t>
+    <t>2022-08-01T08:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:55:33+00:00</t>
+    <t>2022-08-01T09:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:36:23+00:00</t>
+    <t>2022-08-01T09:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:40:40+00:00</t>
+    <t>2022-08-01T09:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:44:39+00:00</t>
+    <t>2022-08-01T11:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:03:16+00:00</t>
+    <t>2022-08-01T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:09:19+00:00</t>
+    <t>2022-08-01T11:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:21:55+00:00</t>
+    <t>2022-08-01T11:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:27:43+00:00</t>
+    <t>2022-08-01T11:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:51:23+00:00</t>
+    <t>2022-08-01T13:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:06:52+00:00</t>
+    <t>2022-08-01T14:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T14:20:34+00:00</t>
+    <t>2022-08-01T14:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-bodysite-bodysiteposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T14:34:44+00:00</t>
+    <t>2022-08-01T14:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
